--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 67854-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 67854-2019.xlsx", "A 67854-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 67854-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 67854-2019.png", "A 67854-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 67854-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 67854-2019.docx", "A 67854-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 67854-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 67854-2019.docx", "A 67854-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 67854-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 67854-2019.docx", "A 67854-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 67854-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 67854-2019.docx", "A 67854-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 51718-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 51718-2018.xlsx", "A 51718-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 51718-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 51718-2018.png", "A 51718-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 51718-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 51718-2018.docx", "A 51718-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 51718-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 51718-2018.docx", "A 51718-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 51718-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 51718-2018.docx", "A 51718-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 51718-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 51718-2018.docx", "A 51718-2018")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 8051-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 8051-2019.xlsx", "A 8051-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 8051-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 8051-2019.png", "A 8051-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 8051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 8051-2019.docx", "A 8051-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 8051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 8051-2019.docx", "A 8051-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 8051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 8051-2019.docx", "A 8051-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 8051-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 8051-2019.docx", "A 8051-2019")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,27 +884,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 20797-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 20797-2019.xlsx", "A 20797-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 20797-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 20797-2019.png", "A 20797-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 20797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 20797-2019.docx", "A 20797-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 20797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 20797-2019.docx", "A 20797-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 20797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 20797-2019.docx", "A 20797-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 20797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 20797-2019.docx", "A 20797-2019")</f>
         <v/>
       </c>
     </row>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,27 +969,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 50786-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 50786-2019.xlsx", "A 50786-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 50786-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 50786-2019.png", "A 50786-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 50786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 50786-2019.docx", "A 50786-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 50786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 50786-2019.docx", "A 50786-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 50786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 50786-2019.docx", "A 50786-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 50786-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 50786-2019.docx", "A 50786-2019")</f>
         <v/>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 10364-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 10364-2021.xlsx", "A 10364-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 10364-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 10364-2021.png", "A 10364-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 10364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 10364-2021.docx", "A 10364-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 10364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 10364-2021.docx", "A 10364-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 10364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 10364-2021.docx", "A 10364-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 10364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 10364-2021.docx", "A 10364-2021")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1144,27 +1144,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 28050-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 28050-2021.xlsx", "A 28050-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 28050-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 28050-2021.png", "A 28050-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 28050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 28050-2021.docx", "A 28050-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 28050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 28050-2021.docx", "A 28050-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 28050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 28050-2021.docx", "A 28050-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 28050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 28050-2021.docx", "A 28050-2021")</f>
         <v/>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1234,27 +1234,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 48234-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/artfynd/A 48234-2022.xlsx", "A 48234-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 48234-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/kartor/A 48234-2022.png", "A 48234-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 48234-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomål/A 48234-2022.docx", "A 48234-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 48234-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/klagomålsmail/A 48234-2022.docx", "A 48234-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 48234-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsyn/A 48234-2022.docx", "A 48234-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 48234-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARBOGA/tillsynsmail/A 48234-2022.docx", "A 48234-2022")</f>
         <v/>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y261"/>
+  <dimension ref="A1:Y265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
       </c>
       <c r="R260" s="2" t="inlineStr"/>
     </row>
-    <row r="261">
+    <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
           <t>A 40231-2023</t>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15876,6 +15876,254 @@
         <v>0</v>
       </c>
       <c r="R261" s="2" t="inlineStr"/>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>A 43802-2023</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" s="2" t="inlineStr"/>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>A 43806-2023</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264" ht="15" customHeight="1">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>A 43813-2023</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>A 43812-2023</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15880,14 +15880,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 43802-2023</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15942,14 +15942,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 43806-2023</t>
+          <t>A 43802-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16066,14 +16066,14 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 43806-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -572,7 +572,7 @@
         <v>43816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>43381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43501</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43573</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44355</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>44858</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>43332</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>43348</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>43410</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>43417</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>43434</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>43436</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43441</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>43456</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>43456</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
         <v>43461</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43461</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>43462</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>43467</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>43469</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>43473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>43479</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43479</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43496</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>43501</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>43501</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43510</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>43525</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>43535</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>43542</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>43542</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43542</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43551</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>43551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>43570</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43570</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>43570</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>43572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43572</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43575</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>43577</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43578</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43591</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>43598</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>43612</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43613</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>43625</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43685</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43689</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43690</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43707</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43719</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43720</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>43727</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43727</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43731</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43731</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43740</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43746</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43752</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43752</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43752</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43759</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43759</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43759</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43760</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43760</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43773</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43793</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>43803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>43804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>43808</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>43808</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>43811</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>43827</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>43827</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>43827</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>43840</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43858</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>43864</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>43868</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43868</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>43868</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43868</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43868</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>43869</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>43871</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>43872</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43875</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>43880</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43891</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43891</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43894</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43895</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43901</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>43903</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>43920</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43941</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43964</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43964</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43976</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43982</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43997</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44020</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44026</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44032</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44046</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44048</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44049</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44054</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44064</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44083</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44090</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44090</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44097</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44103</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>44105</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44179</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44179</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44197</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44203</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44203</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>44232</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44234</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44242</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44242</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>44242</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>44257</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>44257</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>44257</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44257</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44257</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44257</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44257</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44257</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44257</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44263</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44263</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44264</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44270</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44272</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44293</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44319</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44319</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44325</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>44336</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>44341</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44354</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44355</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44355</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44398</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44400</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44404</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>44404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44404</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
         <v>44404</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11267,7 +11267,7 @@
         <v>44427</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>44427</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44456</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44494</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44511</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44511</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44512</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44526</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44530</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44530</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44536</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44573</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>44582</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>44622</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44631</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44634</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44659</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44662</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>44663</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44663</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44665</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>44668</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44668</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>44668</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>44668</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>44671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44676</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44677</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44697</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44698</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44699</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44699</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44704</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44745</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44760</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44781</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44790</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44830</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44830</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44837</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>44844</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44858</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44886</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>44887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>44909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44916</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44942</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44966</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44978</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44986</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44988</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44994</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44994</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45005</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45030</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>45034</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45050</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>45058</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45068</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45092</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45110</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>45145</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45145</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45145</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45147</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45153</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45167</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>45169</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>45187</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>45187</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45187</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45187</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
